--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Lgals1-Cd69.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Lgals1-Cd69.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.88469033333334</v>
+        <v>1.576331333333333</v>
       </c>
       <c r="H2">
-        <v>50.654071</v>
+        <v>4.728994</v>
       </c>
       <c r="I2">
-        <v>0.06267206522474383</v>
+        <v>0.01463337290888519</v>
       </c>
       <c r="J2">
-        <v>0.06267206522474383</v>
+        <v>0.01463337290888519</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>13.92410533333333</v>
+        <v>0.004819666666666667</v>
       </c>
       <c r="N2">
-        <v>41.772316</v>
+        <v>0.014459</v>
       </c>
       <c r="O2">
-        <v>0.9926481335887254</v>
+        <v>0.04945987179224048</v>
       </c>
       <c r="P2">
-        <v>0.9926481335887255</v>
+        <v>0.04945987179224049</v>
       </c>
       <c r="Q2">
-        <v>235.1042067220484</v>
+        <v>0.007597391582888888</v>
       </c>
       <c r="R2">
-        <v>2115.937860498436</v>
+        <v>0.06837652424600001</v>
       </c>
       <c r="S2">
-        <v>0.06221130857349283</v>
+        <v>0.0007237647479615065</v>
       </c>
       <c r="T2">
-        <v>0.06221130857349284</v>
+        <v>0.0007237647479615068</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.88469033333334</v>
+        <v>1.576331333333333</v>
       </c>
       <c r="H3">
-        <v>50.654071</v>
+        <v>4.728994</v>
       </c>
       <c r="I3">
-        <v>0.06267206522474383</v>
+        <v>0.01463337290888519</v>
       </c>
       <c r="J3">
-        <v>0.06267206522474383</v>
+        <v>0.01463337290888519</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>0.150703</v>
       </c>
       <c r="O3">
-        <v>0.003581200804767964</v>
+        <v>0.5155094445470654</v>
       </c>
       <c r="P3">
-        <v>0.003581200804767964</v>
+        <v>0.5155094445470654</v>
       </c>
       <c r="Q3">
-        <v>0.8481911624347779</v>
+        <v>0.07918595364244445</v>
       </c>
       <c r="R3">
-        <v>7.633720461913001</v>
+        <v>0.712673582782</v>
       </c>
       <c r="S3">
-        <v>0.0002244412504193229</v>
+        <v>0.007543641940109477</v>
       </c>
       <c r="T3">
-        <v>0.0002244412504193229</v>
+        <v>0.007543641940109478</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,46 +658,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.88469033333334</v>
+        <v>1.576331333333333</v>
       </c>
       <c r="H4">
-        <v>50.654071</v>
+        <v>4.728994</v>
       </c>
       <c r="I4">
-        <v>0.06267206522474383</v>
+        <v>0.01463337290888519</v>
       </c>
       <c r="J4">
-        <v>0.06267206522474383</v>
+        <v>0.01463337290888519</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.052892</v>
+        <v>0.04239200000000001</v>
       </c>
       <c r="N4">
-        <v>0.158676</v>
+        <v>0.127176</v>
       </c>
       <c r="O4">
-        <v>0.003770665606506583</v>
+        <v>0.4350306836606942</v>
       </c>
       <c r="P4">
-        <v>0.003770665606506583</v>
+        <v>0.4350306836606942</v>
       </c>
       <c r="Q4">
-        <v>0.8930650411106668</v>
+        <v>0.06682383788266667</v>
       </c>
       <c r="R4">
-        <v>8.037585369996</v>
+        <v>0.601414540944</v>
       </c>
       <c r="S4">
-        <v>0.0002363154008316788</v>
+        <v>0.006365966220814204</v>
       </c>
       <c r="T4">
-        <v>0.0002363154008316788</v>
+        <v>0.006365966220814205</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>74.31489566666667</v>
+        <v>74.31489566666666</v>
       </c>
       <c r="H5">
         <v>222.944687</v>
       </c>
       <c r="I5">
-        <v>0.2758397042791309</v>
+        <v>0.6898788078237544</v>
       </c>
       <c r="J5">
-        <v>0.2758397042791309</v>
+        <v>0.6898788078237544</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -738,28 +738,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>13.92410533333333</v>
+        <v>0.004819666666666667</v>
       </c>
       <c r="N5">
-        <v>41.772316</v>
+        <v>0.014459</v>
       </c>
       <c r="O5">
-        <v>0.9926481335887254</v>
+        <v>0.04945987179224048</v>
       </c>
       <c r="P5">
-        <v>0.9926481335887255</v>
+        <v>0.04945987179224049</v>
       </c>
       <c r="Q5">
-        <v>1034.768435098343</v>
+        <v>0.3581730254814444</v>
       </c>
       <c r="R5">
-        <v>9312.915915885093</v>
+        <v>3.223557229333</v>
       </c>
       <c r="S5">
-        <v>0.2738117676223452</v>
+        <v>0.0341213173871466</v>
       </c>
       <c r="T5">
-        <v>0.2738117676223453</v>
+        <v>0.03412131738714661</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>74.31489566666667</v>
+        <v>74.31489566666666</v>
       </c>
       <c r="H6">
         <v>222.944687</v>
       </c>
       <c r="I6">
-        <v>0.2758397042791309</v>
+        <v>0.6898788078237544</v>
       </c>
       <c r="J6">
-        <v>0.2758397042791309</v>
+        <v>0.6898788078237544</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,22 +806,22 @@
         <v>0.150703</v>
       </c>
       <c r="O6">
-        <v>0.003581200804767964</v>
+        <v>0.5155094445470654</v>
       </c>
       <c r="P6">
-        <v>0.003581200804767964</v>
+        <v>0.5155094445470654</v>
       </c>
       <c r="Q6">
-        <v>3.733159240551223</v>
+        <v>3.733159240551222</v>
       </c>
       <c r="R6">
         <v>33.598433164961</v>
       </c>
       <c r="S6">
-        <v>0.0009878373709513808</v>
+        <v>0.3556390410260153</v>
       </c>
       <c r="T6">
-        <v>0.0009878373709513808</v>
+        <v>0.3556390410260153</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,46 +844,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>74.31489566666667</v>
+        <v>74.31489566666666</v>
       </c>
       <c r="H7">
         <v>222.944687</v>
       </c>
       <c r="I7">
-        <v>0.2758397042791309</v>
+        <v>0.6898788078237544</v>
       </c>
       <c r="J7">
-        <v>0.2758397042791309</v>
+        <v>0.6898788078237544</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.052892</v>
+        <v>0.04239200000000001</v>
       </c>
       <c r="N7">
-        <v>0.158676</v>
+        <v>0.127176</v>
       </c>
       <c r="O7">
-        <v>0.003770665606506583</v>
+        <v>0.4350306836606942</v>
       </c>
       <c r="P7">
-        <v>0.003770665606506583</v>
+        <v>0.4350306836606942</v>
       </c>
       <c r="Q7">
-        <v>3.930663461601334</v>
+        <v>3.150357057101334</v>
       </c>
       <c r="R7">
-        <v>35.37597115441201</v>
+        <v>28.353213513912</v>
       </c>
       <c r="S7">
-        <v>0.001040099285834266</v>
+        <v>0.3001184494105926</v>
       </c>
       <c r="T7">
-        <v>0.001040099285834266</v>
+        <v>0.3001184494105926</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>178.2137526666667</v>
+        <v>31.83044066666666</v>
       </c>
       <c r="H8">
-        <v>534.641258</v>
+        <v>95.491322</v>
       </c>
       <c r="I8">
-        <v>0.6614882304961253</v>
+        <v>0.2954878192673605</v>
       </c>
       <c r="J8">
-        <v>0.6614882304961253</v>
+        <v>0.2954878192673605</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -924,28 +924,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>13.92410533333333</v>
+        <v>0.004819666666666667</v>
       </c>
       <c r="N8">
-        <v>41.772316</v>
+        <v>0.014459</v>
       </c>
       <c r="O8">
-        <v>0.9926481335887254</v>
+        <v>0.04945987179224048</v>
       </c>
       <c r="P8">
-        <v>0.9926481335887255</v>
+        <v>0.04945987179224049</v>
       </c>
       <c r="Q8">
-        <v>2481.467063979281</v>
+        <v>0.1534121138664444</v>
       </c>
       <c r="R8">
-        <v>22333.20357581352</v>
+        <v>1.380709024798</v>
       </c>
       <c r="S8">
-        <v>0.6566250573928873</v>
+        <v>0.01461478965713238</v>
       </c>
       <c r="T8">
-        <v>0.6566250573928873</v>
+        <v>0.01461478965713238</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>178.2137526666667</v>
+        <v>31.83044066666666</v>
       </c>
       <c r="H9">
-        <v>534.641258</v>
+        <v>95.491322</v>
       </c>
       <c r="I9">
-        <v>0.6614882304961253</v>
+        <v>0.2954878192673605</v>
       </c>
       <c r="J9">
-        <v>0.6614882304961253</v>
+        <v>0.2954878192673605</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,22 +992,22 @@
         <v>0.150703</v>
       </c>
       <c r="O9">
-        <v>0.003581200804767964</v>
+        <v>0.5155094445470654</v>
       </c>
       <c r="P9">
-        <v>0.003581200804767964</v>
+        <v>0.5155094445470654</v>
       </c>
       <c r="Q9">
-        <v>8.952449056041555</v>
+        <v>1.598980966596222</v>
       </c>
       <c r="R9">
-        <v>80.572041504374</v>
+        <v>14.390828699366</v>
       </c>
       <c r="S9">
-        <v>0.00236892218339726</v>
+        <v>0.1523267615809407</v>
       </c>
       <c r="T9">
-        <v>0.00236892218339726</v>
+        <v>0.1523267615809407</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,46 +1030,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>178.2137526666667</v>
+        <v>31.83044066666666</v>
       </c>
       <c r="H10">
-        <v>534.641258</v>
+        <v>95.491322</v>
       </c>
       <c r="I10">
-        <v>0.6614882304961253</v>
+        <v>0.2954878192673605</v>
       </c>
       <c r="J10">
-        <v>0.6614882304961253</v>
+        <v>0.2954878192673605</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.052892</v>
+        <v>0.04239200000000001</v>
       </c>
       <c r="N10">
-        <v>0.158676</v>
+        <v>0.127176</v>
       </c>
       <c r="O10">
-        <v>0.003770665606506583</v>
+        <v>0.4350306836606942</v>
       </c>
       <c r="P10">
-        <v>0.003770665606506583</v>
+        <v>0.4350306836606942</v>
       </c>
       <c r="Q10">
-        <v>9.426081806045334</v>
+        <v>1.349356040741333</v>
       </c>
       <c r="R10">
-        <v>84.834736254408</v>
+        <v>12.144204366672</v>
       </c>
       <c r="S10">
-        <v>0.002494250919840638</v>
+        <v>0.1285462680292875</v>
       </c>
       <c r="T10">
-        <v>0.002494250919840638</v>
+        <v>0.1285462680292875</v>
       </c>
     </row>
   </sheetData>
